--- a/BusinessValuation2.xlsx
+++ b/BusinessValuation2.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gggggg\MSc in Finance EMLYON\Statistics\Business valuation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE2BC61-755A-4C52-83F9-B044C1A446AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47317EC8-DF6C-47A1-B97A-20CB7D87ABBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="18426" windowHeight="11746" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="18426" windowHeight="11746" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
     <sheet name="Pearson Corr" sheetId="2" r:id="rId2"/>
-    <sheet name="BESS" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DATA!$A$1:$L$73</definedName>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="156">
   <si>
     <t>Company</t>
   </si>
@@ -493,399 +492,6 @@
   </si>
   <si>
     <t>XOMA</t>
-  </si>
-  <si>
-    <t>numb_indvar</t>
-  </si>
-  <si>
-    <t>RSS</t>
-  </si>
-  <si>
-    <t>R_squared</t>
-  </si>
-  <si>
-    <t>features</t>
-  </si>
-  <si>
-    <t>('P/E Ratio',)</t>
-  </si>
-  <si>
-    <t>('LN(Assets)',)</t>
-  </si>
-  <si>
-    <t>('ROE',)</t>
-  </si>
-  <si>
-    <t>('SGrowth',)</t>
-  </si>
-  <si>
-    <t>('Debt/EBITDA Ratio',)</t>
-  </si>
-  <si>
-    <t>('D2834',)</t>
-  </si>
-  <si>
-    <t>('D2835',)</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'LN(Assets)')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'ROE')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'SGrowth')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'Debt/EBITDA Ratio')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'D2834')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'D2835')</t>
-  </si>
-  <si>
-    <t>('LN(Assets)', 'ROE')</t>
-  </si>
-  <si>
-    <t>('LN(Assets)', 'SGrowth')</t>
-  </si>
-  <si>
-    <t>('LN(Assets)', 'Debt/EBITDA Ratio')</t>
-  </si>
-  <si>
-    <t>('LN(Assets)', 'D2834')</t>
-  </si>
-  <si>
-    <t>('LN(Assets)', 'D2835')</t>
-  </si>
-  <si>
-    <t>('ROE', 'SGrowth')</t>
-  </si>
-  <si>
-    <t>('ROE', 'Debt/EBITDA Ratio')</t>
-  </si>
-  <si>
-    <t>('ROE', 'D2834')</t>
-  </si>
-  <si>
-    <t>('ROE', 'D2835')</t>
-  </si>
-  <si>
-    <t>('SGrowth', 'Debt/EBITDA Ratio')</t>
-  </si>
-  <si>
-    <t>('SGrowth', 'D2834')</t>
-  </si>
-  <si>
-    <t>('SGrowth', 'D2835')</t>
-  </si>
-  <si>
-    <t>('Debt/EBITDA Ratio', 'D2834')</t>
-  </si>
-  <si>
-    <t>('Debt/EBITDA Ratio', 'D2835')</t>
-  </si>
-  <si>
-    <t>('D2834', 'D2835')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'LN(Assets)', 'ROE')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'LN(Assets)', 'SGrowth')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'LN(Assets)', 'Debt/EBITDA Ratio')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'LN(Assets)', 'D2834')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'LN(Assets)', 'D2835')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'ROE', 'SGrowth')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'ROE', 'Debt/EBITDA Ratio')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'ROE', 'D2834')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'ROE', 'D2835')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'SGrowth', 'Debt/EBITDA Ratio')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'SGrowth', 'D2834')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'SGrowth', 'D2835')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'Debt/EBITDA Ratio', 'D2834')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'Debt/EBITDA Ratio', 'D2835')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'D2834', 'D2835')</t>
-  </si>
-  <si>
-    <t>('LN(Assets)', 'ROE', 'SGrowth')</t>
-  </si>
-  <si>
-    <t>('LN(Assets)', 'ROE', 'Debt/EBITDA Ratio')</t>
-  </si>
-  <si>
-    <t>('LN(Assets)', 'ROE', 'D2834')</t>
-  </si>
-  <si>
-    <t>('LN(Assets)', 'ROE', 'D2835')</t>
-  </si>
-  <si>
-    <t>('LN(Assets)', 'SGrowth', 'Debt/EBITDA Ratio')</t>
-  </si>
-  <si>
-    <t>('LN(Assets)', 'SGrowth', 'D2834')</t>
-  </si>
-  <si>
-    <t>('LN(Assets)', 'SGrowth', 'D2835')</t>
-  </si>
-  <si>
-    <t>('LN(Assets)', 'Debt/EBITDA Ratio', 'D2834')</t>
-  </si>
-  <si>
-    <t>('LN(Assets)', 'Debt/EBITDA Ratio', 'D2835')</t>
-  </si>
-  <si>
-    <t>('LN(Assets)', 'D2834', 'D2835')</t>
-  </si>
-  <si>
-    <t>('ROE', 'SGrowth', 'Debt/EBITDA Ratio')</t>
-  </si>
-  <si>
-    <t>('ROE', 'SGrowth', 'D2834')</t>
-  </si>
-  <si>
-    <t>('ROE', 'SGrowth', 'D2835')</t>
-  </si>
-  <si>
-    <t>('ROE', 'Debt/EBITDA Ratio', 'D2834')</t>
-  </si>
-  <si>
-    <t>('ROE', 'Debt/EBITDA Ratio', 'D2835')</t>
-  </si>
-  <si>
-    <t>('ROE', 'D2834', 'D2835')</t>
-  </si>
-  <si>
-    <t>('SGrowth', 'Debt/EBITDA Ratio', 'D2834')</t>
-  </si>
-  <si>
-    <t>('SGrowth', 'Debt/EBITDA Ratio', 'D2835')</t>
-  </si>
-  <si>
-    <t>('SGrowth', 'D2834', 'D2835')</t>
-  </si>
-  <si>
-    <t>('Debt/EBITDA Ratio', 'D2834', 'D2835')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'LN(Assets)', 'ROE', 'SGrowth')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'LN(Assets)', 'ROE', 'Debt/EBITDA Ratio')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'LN(Assets)', 'ROE', 'D2834')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'LN(Assets)', 'ROE', 'D2835')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'LN(Assets)', 'SGrowth', 'Debt/EBITDA Ratio')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'LN(Assets)', 'SGrowth', 'D2834')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'LN(Assets)', 'SGrowth', 'D2835')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'LN(Assets)', 'Debt/EBITDA Ratio', 'D2834')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'LN(Assets)', 'Debt/EBITDA Ratio', 'D2835')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'LN(Assets)', 'D2834', 'D2835')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'ROE', 'SGrowth', 'Debt/EBITDA Ratio')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'ROE', 'SGrowth', 'D2834')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'ROE', 'SGrowth', 'D2835')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'ROE', 'Debt/EBITDA Ratio', 'D2834')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'ROE', 'Debt/EBITDA Ratio', 'D2835')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'ROE', 'D2834', 'D2835')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'SGrowth', 'Debt/EBITDA Ratio', 'D2834')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'SGrowth', 'Debt/EBITDA Ratio', 'D2835')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'SGrowth', 'D2834', 'D2835')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'Debt/EBITDA Ratio', 'D2834', 'D2835')</t>
-  </si>
-  <si>
-    <t>('LN(Assets)', 'ROE', 'SGrowth', 'Debt/EBITDA Ratio')</t>
-  </si>
-  <si>
-    <t>('LN(Assets)', 'ROE', 'SGrowth', 'D2834')</t>
-  </si>
-  <si>
-    <t>('LN(Assets)', 'ROE', 'SGrowth', 'D2835')</t>
-  </si>
-  <si>
-    <t>('LN(Assets)', 'ROE', 'Debt/EBITDA Ratio', 'D2834')</t>
-  </si>
-  <si>
-    <t>('LN(Assets)', 'ROE', 'Debt/EBITDA Ratio', 'D2835')</t>
-  </si>
-  <si>
-    <t>('LN(Assets)', 'ROE', 'D2834', 'D2835')</t>
-  </si>
-  <si>
-    <t>('LN(Assets)', 'SGrowth', 'Debt/EBITDA Ratio', 'D2834')</t>
-  </si>
-  <si>
-    <t>('LN(Assets)', 'SGrowth', 'Debt/EBITDA Ratio', 'D2835')</t>
-  </si>
-  <si>
-    <t>('LN(Assets)', 'SGrowth', 'D2834', 'D2835')</t>
-  </si>
-  <si>
-    <t>('LN(Assets)', 'Debt/EBITDA Ratio', 'D2834', 'D2835')</t>
-  </si>
-  <si>
-    <t>('ROE', 'SGrowth', 'Debt/EBITDA Ratio', 'D2834')</t>
-  </si>
-  <si>
-    <t>('ROE', 'SGrowth', 'Debt/EBITDA Ratio', 'D2835')</t>
-  </si>
-  <si>
-    <t>('ROE', 'SGrowth', 'D2834', 'D2835')</t>
-  </si>
-  <si>
-    <t>('ROE', 'Debt/EBITDA Ratio', 'D2834', 'D2835')</t>
-  </si>
-  <si>
-    <t>('SGrowth', 'Debt/EBITDA Ratio', 'D2834', 'D2835')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'LN(Assets)', 'ROE', 'SGrowth', 'Debt/EBITDA Ratio')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'LN(Assets)', 'ROE', 'SGrowth', 'D2834')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'LN(Assets)', 'ROE', 'SGrowth', 'D2835')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'LN(Assets)', 'ROE', 'Debt/EBITDA Ratio', 'D2834')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'LN(Assets)', 'ROE', 'Debt/EBITDA Ratio', 'D2835')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'LN(Assets)', 'ROE', 'D2834', 'D2835')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'LN(Assets)', 'SGrowth', 'Debt/EBITDA Ratio', 'D2834')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'LN(Assets)', 'SGrowth', 'Debt/EBITDA Ratio', 'D2835')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'LN(Assets)', 'SGrowth', 'D2834', 'D2835')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'LN(Assets)', 'Debt/EBITDA Ratio', 'D2834', 'D2835')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'ROE', 'SGrowth', 'Debt/EBITDA Ratio', 'D2834')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'ROE', 'SGrowth', 'Debt/EBITDA Ratio', 'D2835')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'ROE', 'SGrowth', 'D2834', 'D2835')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'ROE', 'Debt/EBITDA Ratio', 'D2834', 'D2835')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'SGrowth', 'Debt/EBITDA Ratio', 'D2834', 'D2835')</t>
-  </si>
-  <si>
-    <t>('LN(Assets)', 'ROE', 'SGrowth', 'Debt/EBITDA Ratio', 'D2834')</t>
-  </si>
-  <si>
-    <t>('LN(Assets)', 'ROE', 'SGrowth', 'Debt/EBITDA Ratio', 'D2835')</t>
-  </si>
-  <si>
-    <t>('LN(Assets)', 'ROE', 'SGrowth', 'D2834', 'D2835')</t>
-  </si>
-  <si>
-    <t>('LN(Assets)', 'ROE', 'Debt/EBITDA Ratio', 'D2834', 'D2835')</t>
-  </si>
-  <si>
-    <t>('LN(Assets)', 'SGrowth', 'Debt/EBITDA Ratio', 'D2834', 'D2835')</t>
-  </si>
-  <si>
-    <t>('ROE', 'SGrowth', 'Debt/EBITDA Ratio', 'D2834', 'D2835')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'LN(Assets)', 'ROE', 'SGrowth', 'Debt/EBITDA Ratio', 'D2834')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'LN(Assets)', 'ROE', 'SGrowth', 'Debt/EBITDA Ratio', 'D2835')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'LN(Assets)', 'ROE', 'SGrowth', 'D2834', 'D2835')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'LN(Assets)', 'ROE', 'Debt/EBITDA Ratio', 'D2834', 'D2835')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'LN(Assets)', 'SGrowth', 'Debt/EBITDA Ratio', 'D2834', 'D2835')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'ROE', 'SGrowth', 'Debt/EBITDA Ratio', 'D2834', 'D2835')</t>
-  </si>
-  <si>
-    <t>('LN(Assets)', 'ROE', 'SGrowth', 'Debt/EBITDA Ratio', 'D2834', 'D2835')</t>
-  </si>
-  <si>
-    <t>('P/E Ratio', 'LN(Assets)', 'ROE', 'SGrowth', 'Debt/EBITDA Ratio', 'D2834', 'D2835')</t>
   </si>
 </sst>
 </file>
@@ -898,7 +504,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1037,11 +643,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -1242,7 +843,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1381,21 +982,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1442,7 +1028,7 @@
     <xf numFmtId="0" fontId="16" fillId="32" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1475,7 +1061,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="19" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="19" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1490,12 +1075,10 @@
     <xf numFmtId="165" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="34" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="33" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="34" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
@@ -1879,7 +1462,7 @@
   <dimension ref="A1:N73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1888,15 +1471,15 @@
     <col min="2" max="2" width="6.87890625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.1171875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1171875" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.29296875" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1171875" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.29296875" style="23" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.41015625" style="20" customWidth="1"/>
-    <col min="8" max="8" width="10.29296875" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.87890625" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.29296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.87890625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.703125" style="24" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="6.29296875" style="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="9.1171875" style="4" customWidth="1"/>
-    <col min="16" max="16384" width="9.1171875" style="4"/>
+    <col min="13" max="20" width="9.1171875" style="4" customWidth="1"/>
+    <col min="21" max="16384" width="9.1171875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.5">
@@ -1915,19 +1498,19 @@
       <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="26" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="14" t="s">
@@ -1952,22 +1535,22 @@
       <c r="D2" s="8">
         <v>2834</v>
       </c>
-      <c r="E2" s="28">
+      <c r="E2" s="27">
         <v>3.149</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F2" s="28">
         <v>39.841000000000001</v>
       </c>
       <c r="G2" s="16">
         <v>10.62801226878833</v>
       </c>
-      <c r="H2" s="29">
+      <c r="H2" s="28">
         <v>7.9950000000000001</v>
       </c>
-      <c r="I2" s="29">
+      <c r="I2" s="28">
         <v>-8.0269999999999992</v>
       </c>
-      <c r="J2" s="30">
+      <c r="J2" s="29">
         <v>1.7531000000000001</v>
       </c>
       <c r="K2" s="15">
@@ -1992,22 +1575,22 @@
       <c r="D3" s="8">
         <v>2836</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="27">
         <v>10.234999999999999</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="28">
         <v>-33.420999999999999</v>
       </c>
       <c r="G3" s="16">
         <v>5.7852334210651817</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="28">
         <v>-29.88</v>
       </c>
-      <c r="I3" s="29">
+      <c r="I3" s="28">
         <v>-54.854999999999997</v>
       </c>
-      <c r="J3" s="30">
+      <c r="J3" s="29">
         <v>0</v>
       </c>
       <c r="K3" s="15">
@@ -2032,22 +1615,22 @@
       <c r="D4" s="10">
         <v>2835</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="30">
         <v>12.972</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="31">
         <v>-27.027999999999999</v>
       </c>
       <c r="G4" s="17">
         <v>4.2456483363132662</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="31">
         <v>-46.875</v>
       </c>
-      <c r="I4" s="32">
+      <c r="I4" s="31">
         <v>-37.408999999999999</v>
       </c>
-      <c r="J4" s="30">
+      <c r="J4" s="29">
         <v>-5.1999999999999998E-3</v>
       </c>
       <c r="K4" s="15">
@@ -2072,22 +1655,22 @@
       <c r="D5" s="8">
         <v>2834</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="27">
         <v>10.093</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="28">
         <v>103.429</v>
       </c>
       <c r="G5" s="16">
         <v>7.5532346902517924</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="28">
         <v>9.2690000000000001</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I5" s="28">
         <v>50.863</v>
       </c>
-      <c r="J5" s="30">
+      <c r="J5" s="29">
         <v>5.4107000000000003</v>
       </c>
       <c r="K5" s="15">
@@ -2112,22 +1695,22 @@
       <c r="D6" s="10">
         <v>2835</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="30">
         <v>2.3490000000000002</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="31">
         <v>-16.667000000000002</v>
       </c>
       <c r="G6" s="17">
         <v>8.8125518731604622</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="31">
         <v>-13.987</v>
       </c>
-      <c r="I6" s="32">
+      <c r="I6" s="31">
         <v>6.1130000000000004</v>
       </c>
-      <c r="J6" s="30">
+      <c r="J6" s="29">
         <v>7.2988</v>
       </c>
       <c r="K6" s="15">
@@ -2152,22 +1735,22 @@
       <c r="D7" s="8">
         <v>2836</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="27">
         <v>11.111000000000001</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="28">
         <v>55.731999999999999</v>
       </c>
       <c r="G7" s="16">
         <v>8.3433068380513458</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="28">
         <v>19.893999999999998</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="28">
         <v>42.006999999999998</v>
       </c>
-      <c r="J7" s="30">
+      <c r="J7" s="29">
         <v>0.1711</v>
       </c>
       <c r="K7" s="15">
@@ -2192,22 +1775,22 @@
       <c r="D8" s="10">
         <v>2835</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="30">
         <v>2.3450000000000002</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="31">
         <v>7.0330000000000004</v>
       </c>
       <c r="G8" s="17">
         <v>7.2362911054498351</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="31">
         <v>29.527999999999999</v>
       </c>
-      <c r="I8" s="32">
+      <c r="I8" s="31">
         <v>48.579000000000001</v>
       </c>
-      <c r="J8" s="30">
+      <c r="J8" s="29">
         <v>35.68</v>
       </c>
       <c r="K8" s="15">
@@ -2232,22 +1815,22 @@
       <c r="D9" s="8">
         <v>2835</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="27">
         <v>3.169</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="28">
         <v>-6.5</v>
       </c>
       <c r="G9" s="16">
         <v>1.405606672152264</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="28">
         <v>-50.515000000000001</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="28">
         <v>-5.6159999999999997</v>
       </c>
-      <c r="J9" s="30">
+      <c r="J9" s="29">
         <v>-20.509399999999999</v>
       </c>
       <c r="K9" s="15">
@@ -2257,7 +1840,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="3"/>
-      <c r="N9" s="22"/>
+      <c r="N9" s="32"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
@@ -2272,22 +1855,22 @@
       <c r="D10" s="8">
         <v>2836</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="27">
         <v>4.7</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="28">
         <v>23.425000000000001</v>
       </c>
       <c r="G10" s="16">
         <v>11.141992209856131</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="28">
         <v>20.009</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="28">
         <v>6.5019999999999998</v>
       </c>
-      <c r="J10" s="30">
+      <c r="J10" s="29">
         <v>3.4066999999999998</v>
       </c>
       <c r="K10" s="15">
@@ -2312,22 +1895,22 @@
       <c r="D11" s="8">
         <v>2836</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="27">
         <v>3.3180000000000001</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="28">
         <v>15.609</v>
       </c>
       <c r="G11" s="16">
         <v>5.267837540294062</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11" s="28">
         <v>21.515999999999998</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="28">
         <v>21.344999999999999</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="29">
         <v>0</v>
       </c>
       <c r="K11" s="15">
@@ -2352,22 +1935,22 @@
       <c r="D12" s="8">
         <v>2836</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="27">
         <v>15.917</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="28">
         <v>-7.8970000000000002</v>
       </c>
       <c r="G12" s="16">
         <v>6.4033589429810496</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="28">
         <v>-201.238</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I12" s="28">
         <v>66.242000000000004</v>
       </c>
-      <c r="J12" s="30">
+      <c r="J12" s="29">
         <v>-1.0093000000000001</v>
       </c>
       <c r="K12" s="15">
@@ -2390,22 +1973,22 @@
       <c r="D13" s="8">
         <v>2834</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="27">
         <v>4.5289999999999999</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="28">
         <v>71.816000000000003</v>
       </c>
       <c r="G13" s="16">
         <v>10.978404647692701</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H13" s="28">
         <v>6.282</v>
       </c>
-      <c r="I13" s="29">
+      <c r="I13" s="28">
         <v>-3.839</v>
       </c>
-      <c r="J13" s="30">
+      <c r="J13" s="29">
         <v>1.5609999999999999</v>
       </c>
       <c r="K13" s="15">
@@ -2428,22 +2011,22 @@
       <c r="D14" s="8">
         <v>2834</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="27">
         <v>5.2279999999999998</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="28">
         <v>38.298999999999999</v>
       </c>
       <c r="G14" s="16">
         <v>6.7584092051946092</v>
       </c>
-      <c r="H14" s="29">
+      <c r="H14" s="28">
         <v>13.48</v>
       </c>
-      <c r="I14" s="29">
+      <c r="I14" s="28">
         <v>19.795000000000002</v>
       </c>
-      <c r="J14" s="30">
+      <c r="J14" s="29">
         <v>2.8250999999999999</v>
       </c>
       <c r="K14" s="15">
@@ -2466,22 +2049,22 @@
       <c r="D15" s="8">
         <v>2836</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="27">
         <v>4.8920000000000003</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="28">
         <v>20.414999999999999</v>
       </c>
       <c r="G15" s="16">
         <v>10.162654403026989</v>
       </c>
-      <c r="H15" s="29">
+      <c r="H15" s="28">
         <v>23.966000000000001</v>
       </c>
-      <c r="I15" s="29">
+      <c r="I15" s="28">
         <v>5.8230000000000004</v>
       </c>
-      <c r="J15" s="30">
+      <c r="J15" s="29">
         <v>2.2734000000000001</v>
       </c>
       <c r="K15" s="15">
@@ -2504,22 +2087,22 @@
       <c r="D16" s="10">
         <v>2835</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="30">
         <v>28.484999999999999</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F16" s="31">
         <v>-1.8440000000000001</v>
       </c>
       <c r="G16" s="17">
         <v>1.654220055205994</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H16" s="31">
         <v>-1447.7560000000001</v>
       </c>
-      <c r="I16" s="32">
+      <c r="I16" s="31">
         <v>-19.971</v>
       </c>
-      <c r="J16" s="30">
+      <c r="J16" s="29">
         <v>-0.43359999999999999</v>
       </c>
       <c r="K16" s="15">
@@ -2542,22 +2125,22 @@
       <c r="D17" s="8">
         <v>2836</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="27">
         <v>7.4160000000000004</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="28">
         <v>27.331</v>
       </c>
       <c r="G17" s="16">
         <v>9.5691721183434879</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="28">
         <v>27.151</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="28">
         <v>17.257999999999999</v>
       </c>
-      <c r="J17" s="30">
+      <c r="J17" s="29">
         <v>0.12709999999999999</v>
       </c>
       <c r="K17" s="15">
@@ -2580,22 +2163,22 @@
       <c r="D18" s="8">
         <v>2836</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="27">
         <v>8.7249999999999996</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="28">
         <v>-98.260999999999996</v>
       </c>
       <c r="G18" s="16">
         <v>7.8202199006227584</v>
       </c>
-      <c r="H18" s="29">
+      <c r="H18" s="28">
         <v>-8.7680000000000007</v>
       </c>
-      <c r="I18" s="29">
+      <c r="I18" s="28">
         <v>18.263000000000002</v>
       </c>
-      <c r="J18" s="30">
+      <c r="J18" s="29">
         <v>-6.1338999999999997</v>
       </c>
       <c r="K18" s="15">
@@ -2618,22 +2201,22 @@
       <c r="D19" s="10">
         <v>2836</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="30">
         <v>9.4079999999999995</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="31">
         <v>-6.782</v>
       </c>
       <c r="G19" s="17">
         <v>4.3161672415688948</v>
       </c>
-      <c r="H19" s="32">
+      <c r="H19" s="31">
         <v>-110.748</v>
       </c>
-      <c r="I19" s="32">
+      <c r="I19" s="31">
         <v>22.187999999999999</v>
       </c>
-      <c r="J19" s="30">
+      <c r="J19" s="29">
         <v>-3.5000000000000001E-3</v>
       </c>
       <c r="K19" s="15">
@@ -2656,22 +2239,22 @@
       <c r="D20" s="8">
         <v>2834</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="27">
         <v>6.593</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F20" s="28">
         <v>48.784999999999997</v>
       </c>
       <c r="G20" s="16">
         <v>10.426706066232081</v>
       </c>
-      <c r="H20" s="29">
+      <c r="H20" s="28">
         <v>13.493</v>
       </c>
-      <c r="I20" s="29">
+      <c r="I20" s="28">
         <v>-3.3290000000000002</v>
       </c>
-      <c r="J20" s="30">
+      <c r="J20" s="29">
         <v>1.9487000000000001</v>
       </c>
       <c r="K20" s="15">
@@ -2694,22 +2277,22 @@
       <c r="D21" s="8">
         <v>2834</v>
       </c>
-      <c r="E21" s="28">
+      <c r="E21" s="27">
         <v>8.9160000000000004</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="28">
         <v>-8.2590000000000003</v>
       </c>
       <c r="G21" s="16">
         <v>3.9143203644768301</v>
       </c>
-      <c r="H21" s="29">
+      <c r="H21" s="28">
         <v>-106.348</v>
       </c>
-      <c r="I21" s="29">
+      <c r="I21" s="28">
         <v>-10.483000000000001</v>
       </c>
-      <c r="J21" s="30">
+      <c r="J21" s="29">
         <v>-0.83130000000000004</v>
       </c>
       <c r="K21" s="15">
@@ -2732,22 +2315,22 @@
       <c r="D22" s="8">
         <v>2834</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="27">
         <v>13.693</v>
       </c>
-      <c r="F22" s="29">
+      <c r="F22" s="28">
         <v>44.923999999999999</v>
       </c>
       <c r="G22" s="16">
         <v>9.7607770173305912</v>
       </c>
-      <c r="H22" s="29">
+      <c r="H22" s="28">
         <v>30.651</v>
       </c>
-      <c r="I22" s="29">
+      <c r="I22" s="28">
         <v>23.315000000000001</v>
       </c>
-      <c r="J22" s="30">
+      <c r="J22" s="29">
         <v>2.2237</v>
       </c>
       <c r="K22" s="15">
@@ -2770,22 +2353,22 @@
       <c r="D23" s="8">
         <v>2836</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E23" s="27">
         <v>11.763</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="28">
         <v>-12</v>
       </c>
       <c r="G23" s="16">
         <v>4.4039838020259241</v>
       </c>
-      <c r="H23" s="29">
+      <c r="H23" s="28">
         <v>-93.337999999999994</v>
       </c>
-      <c r="I23" s="29">
+      <c r="I23" s="28">
         <v>15.157</v>
       </c>
-      <c r="J23" s="30">
+      <c r="J23" s="29">
         <v>-0.2291</v>
       </c>
       <c r="K23" s="15">
@@ -2808,22 +2391,22 @@
       <c r="D24" s="10">
         <v>2835</v>
       </c>
-      <c r="E24" s="31">
+      <c r="E24" s="30">
         <v>1.905</v>
       </c>
-      <c r="F24" s="32">
+      <c r="F24" s="31">
         <v>-32.582999999999998</v>
       </c>
       <c r="G24" s="17">
         <v>3.2192757448895279</v>
       </c>
-      <c r="H24" s="32">
+      <c r="H24" s="31">
         <v>-5.7649999999999997</v>
       </c>
-      <c r="I24" s="32">
+      <c r="I24" s="31">
         <v>14.851000000000001</v>
       </c>
-      <c r="J24" s="30">
+      <c r="J24" s="29">
         <v>0</v>
       </c>
       <c r="K24" s="15">
@@ -2846,22 +2429,22 @@
       <c r="D25" s="8">
         <v>2836</v>
       </c>
-      <c r="E25" s="28">
+      <c r="E25" s="27">
         <v>1.8480000000000001</v>
       </c>
-      <c r="F25" s="29">
+      <c r="F25" s="28">
         <v>27.786000000000001</v>
       </c>
       <c r="G25" s="16">
         <v>6.8514621377446794</v>
       </c>
-      <c r="H25" s="29">
+      <c r="H25" s="28">
         <v>6.6420000000000003</v>
       </c>
-      <c r="I25" s="29">
+      <c r="I25" s="28">
         <v>13.903</v>
       </c>
-      <c r="J25" s="30">
+      <c r="J25" s="29">
         <v>2.3382999999999998</v>
       </c>
       <c r="K25" s="15">
@@ -2884,22 +2467,22 @@
       <c r="D26" s="8">
         <v>2834</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E26" s="27">
         <v>4.673</v>
       </c>
-      <c r="F26" s="29">
+      <c r="F26" s="28">
         <v>-14.659000000000001</v>
       </c>
       <c r="G26" s="16">
         <v>9.297399881140775</v>
       </c>
-      <c r="H26" s="29">
+      <c r="H26" s="28">
         <v>-30.465</v>
       </c>
-      <c r="I26" s="29">
+      <c r="I26" s="28">
         <v>14.518000000000001</v>
       </c>
-      <c r="J26" s="30">
+      <c r="J26" s="29">
         <v>4.4710000000000001</v>
       </c>
       <c r="K26" s="15">
@@ -2922,22 +2505,22 @@
       <c r="D27" s="8">
         <v>2835</v>
       </c>
-      <c r="E27" s="28">
+      <c r="E27" s="27">
         <v>6.9690000000000003</v>
       </c>
-      <c r="F27" s="29">
+      <c r="F27" s="28">
         <v>-40.987000000000002</v>
       </c>
       <c r="G27" s="16">
         <v>5.2253218523065694</v>
       </c>
-      <c r="H27" s="29">
+      <c r="H27" s="28">
         <v>-16.899999999999999</v>
       </c>
-      <c r="I27" s="29">
+      <c r="I27" s="28">
         <v>13.013999999999999</v>
       </c>
-      <c r="J27" s="30">
+      <c r="J27" s="29">
         <v>0</v>
       </c>
       <c r="K27" s="15">
@@ -2960,22 +2543,22 @@
       <c r="D28" s="8">
         <v>2836</v>
       </c>
-      <c r="E28" s="28">
+      <c r="E28" s="27">
         <v>9.2189999999999994</v>
       </c>
-      <c r="F28" s="29">
+      <c r="F28" s="28">
         <v>11.856999999999999</v>
       </c>
       <c r="G28" s="16">
         <v>10.45345696341974</v>
       </c>
-      <c r="H28" s="29">
+      <c r="H28" s="28">
         <v>78.444999999999993</v>
       </c>
-      <c r="I28" s="29">
+      <c r="I28" s="28">
         <v>28.838000000000001</v>
       </c>
-      <c r="J28" s="30">
+      <c r="J28" s="29">
         <v>0.75980000000000003</v>
       </c>
       <c r="K28" s="15">
@@ -2998,22 +2581,22 @@
       <c r="D29" s="8">
         <v>2834</v>
       </c>
-      <c r="E29" s="28">
+      <c r="E29" s="27">
         <v>15.651</v>
       </c>
-      <c r="F29" s="29">
+      <c r="F29" s="28">
         <v>23.876999999999999</v>
       </c>
       <c r="G29" s="16">
         <v>11.056053303372609</v>
       </c>
-      <c r="H29" s="29">
+      <c r="H29" s="28">
         <v>64.649000000000001</v>
       </c>
-      <c r="I29" s="29">
+      <c r="I29" s="28">
         <v>-5.0049999999999999</v>
       </c>
-      <c r="J29" s="30">
+      <c r="J29" s="29">
         <v>2.6669999999999998</v>
       </c>
       <c r="K29" s="15">
@@ -3036,22 +2619,22 @@
       <c r="D30" s="8">
         <v>2834</v>
       </c>
-      <c r="E30" s="28">
+      <c r="E30" s="27">
         <v>3.1059999999999999</v>
       </c>
-      <c r="F30" s="29">
+      <c r="F30" s="28">
         <v>30.934000000000001</v>
       </c>
       <c r="G30" s="16">
         <v>8.8023721336499001</v>
       </c>
-      <c r="H30" s="29">
+      <c r="H30" s="28">
         <v>9.9860000000000007</v>
       </c>
-      <c r="I30" s="29">
+      <c r="I30" s="28">
         <v>2.8460000000000001</v>
       </c>
-      <c r="J30" s="30">
+      <c r="J30" s="29">
         <v>2.0853000000000002</v>
       </c>
       <c r="K30" s="15">
@@ -3074,22 +2657,22 @@
       <c r="D31" s="8">
         <v>2835</v>
       </c>
-      <c r="E31" s="28">
+      <c r="E31" s="27">
         <v>60.16</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="28">
         <v>40.845999999999997</v>
       </c>
       <c r="G31" s="16">
         <v>7.2328855812046804</v>
       </c>
-      <c r="H31" s="29">
+      <c r="H31" s="28">
         <v>154.79300000000001</v>
       </c>
-      <c r="I31" s="29">
+      <c r="I31" s="28">
         <v>7.93</v>
       </c>
-      <c r="J31" s="30">
+      <c r="J31" s="29">
         <v>2.5129000000000001</v>
       </c>
       <c r="K31" s="15">
@@ -3112,22 +2695,22 @@
       <c r="D32" s="8">
         <v>2834</v>
       </c>
-      <c r="E32" s="28">
+      <c r="E32" s="27">
         <v>11.87</v>
       </c>
-      <c r="F32" s="29">
+      <c r="F32" s="28">
         <v>80</v>
       </c>
       <c r="G32" s="16">
         <v>5.2835995894610868</v>
       </c>
-      <c r="H32" s="29">
+      <c r="H32" s="28">
         <v>13.417999999999999</v>
       </c>
-      <c r="I32" s="29">
+      <c r="I32" s="28">
         <v>54.945</v>
       </c>
-      <c r="J32" s="30">
+      <c r="J32" s="29">
         <v>23.450099999999999</v>
       </c>
       <c r="K32" s="15">
@@ -3150,22 +2733,22 @@
       <c r="D33" s="8">
         <v>2835</v>
       </c>
-      <c r="E33" s="28">
+      <c r="E33" s="27">
         <v>8.5779999999999994</v>
       </c>
-      <c r="F33" s="29">
+      <c r="F33" s="28">
         <v>-8.69</v>
       </c>
       <c r="G33" s="16">
         <v>3.846822932179891</v>
       </c>
-      <c r="H33" s="29">
+      <c r="H33" s="28">
         <v>-90.028000000000006</v>
       </c>
-      <c r="I33" s="29">
+      <c r="I33" s="28">
         <v>-21.337</v>
       </c>
-      <c r="J33" s="30">
+      <c r="J33" s="29">
         <v>0</v>
       </c>
       <c r="K33" s="15">
@@ -3188,22 +2771,22 @@
       <c r="D34" s="8">
         <v>2834</v>
       </c>
-      <c r="E34" s="28">
+      <c r="E34" s="27">
         <v>1.476</v>
       </c>
-      <c r="F34" s="29">
+      <c r="F34" s="28">
         <v>18.065000000000001</v>
       </c>
       <c r="G34" s="16">
         <v>3.955235739850965</v>
       </c>
-      <c r="H34" s="29">
+      <c r="H34" s="28">
         <v>8.2260000000000009</v>
       </c>
-      <c r="I34" s="29">
+      <c r="I34" s="28">
         <v>-1.23</v>
       </c>
-      <c r="J34" s="30">
+      <c r="J34" s="29">
         <v>0.91010000000000002</v>
       </c>
       <c r="K34" s="15">
@@ -3226,22 +2809,22 @@
       <c r="D35" s="8">
         <v>2834</v>
       </c>
-      <c r="E35" s="28">
+      <c r="E35" s="27">
         <v>4.9969999999999999</v>
       </c>
-      <c r="F35" s="29">
+      <c r="F35" s="28">
         <v>30.937000000000001</v>
       </c>
       <c r="G35" s="16">
         <v>10.523477820080659</v>
       </c>
-      <c r="H35" s="29">
+      <c r="H35" s="28">
         <v>15.55</v>
       </c>
-      <c r="I35" s="29">
+      <c r="I35" s="28">
         <v>-2.1219999999999999</v>
       </c>
-      <c r="J35" s="30">
+      <c r="J35" s="29">
         <v>1.6987000000000001</v>
       </c>
       <c r="K35" s="15">
@@ -3264,22 +2847,22 @@
       <c r="D36" s="8">
         <v>2834</v>
       </c>
-      <c r="E36" s="28">
+      <c r="E36" s="27">
         <v>1.966</v>
       </c>
-      <c r="F36" s="29">
+      <c r="F36" s="28">
         <v>-55.34</v>
       </c>
       <c r="G36" s="16">
         <v>7.5420570352646008</v>
       </c>
-      <c r="H36" s="29">
+      <c r="H36" s="28">
         <v>-3.4990000000000001</v>
       </c>
-      <c r="I36" s="29">
+      <c r="I36" s="28">
         <v>12.375</v>
       </c>
-      <c r="J36" s="30">
+      <c r="J36" s="29">
         <v>7.9744999999999999</v>
       </c>
       <c r="K36" s="15">
@@ -3302,22 +2885,22 @@
       <c r="D37" s="8">
         <v>2834</v>
       </c>
-      <c r="E37" s="28">
+      <c r="E37" s="27">
         <v>3.3279999999999998</v>
       </c>
-      <c r="F37" s="29">
+      <c r="F37" s="28">
         <v>13.784000000000001</v>
       </c>
       <c r="G37" s="16">
         <v>11.49613529566275</v>
       </c>
-      <c r="H37" s="29">
+      <c r="H37" s="28">
         <v>24.503</v>
       </c>
-      <c r="I37" s="29">
+      <c r="I37" s="28">
         <v>9.0180000000000007</v>
       </c>
-      <c r="J37" s="30">
+      <c r="J37" s="29">
         <v>1.3847</v>
       </c>
       <c r="K37" s="15">
@@ -3340,22 +2923,22 @@
       <c r="D38" s="8">
         <v>2835</v>
       </c>
-      <c r="E38" s="28">
+      <c r="E38" s="27">
         <v>4.5659999999999998</v>
       </c>
-      <c r="F38" s="29">
+      <c r="F38" s="28">
         <v>21.06</v>
       </c>
       <c r="G38" s="16">
         <v>5.1757485221561899</v>
       </c>
-      <c r="H38" s="29">
+      <c r="H38" s="28">
         <v>21.576000000000001</v>
       </c>
-      <c r="I38" s="29">
+      <c r="I38" s="28">
         <v>4.9550000000000001</v>
       </c>
-      <c r="J38" s="30">
+      <c r="J38" s="29">
         <v>0</v>
       </c>
       <c r="K38" s="15">
@@ -3378,22 +2961,22 @@
       <c r="D39" s="8">
         <v>2836</v>
       </c>
-      <c r="E39" s="28">
+      <c r="E39" s="27">
         <v>3.0950000000000002</v>
       </c>
-      <c r="F39" s="29">
+      <c r="F39" s="28">
         <v>-6.3040000000000003</v>
       </c>
       <c r="G39" s="16">
         <v>5.5460208387226304</v>
       </c>
-      <c r="H39" s="29">
+      <c r="H39" s="28">
         <v>-47.779000000000003</v>
       </c>
-      <c r="I39" s="29">
+      <c r="I39" s="28">
         <v>20.875</v>
       </c>
-      <c r="J39" s="30">
+      <c r="J39" s="29">
         <v>0</v>
       </c>
       <c r="K39" s="15">
@@ -3416,22 +2999,22 @@
       <c r="D40" s="8">
         <v>2834</v>
       </c>
-      <c r="E40" s="28">
+      <c r="E40" s="27">
         <v>6.4930000000000003</v>
       </c>
-      <c r="F40" s="29">
+      <c r="F40" s="28">
         <v>22.638999999999999</v>
       </c>
       <c r="G40" s="16">
         <v>9.6732312655847146</v>
       </c>
-      <c r="H40" s="29">
+      <c r="H40" s="28">
         <v>28.545000000000002</v>
       </c>
-      <c r="I40" s="29">
+      <c r="I40" s="28">
         <v>8.6839999999999993</v>
       </c>
-      <c r="J40" s="30">
+      <c r="J40" s="29">
         <v>3.9315000000000002</v>
       </c>
       <c r="K40" s="15">
@@ -3454,22 +3037,22 @@
       <c r="D41" s="8">
         <v>2835</v>
       </c>
-      <c r="E41" s="28">
+      <c r="E41" s="27">
         <v>4.05</v>
       </c>
-      <c r="F41" s="29">
+      <c r="F41" s="28">
         <v>16.704000000000001</v>
       </c>
       <c r="G41" s="16">
         <v>6.7139447762736966</v>
       </c>
-      <c r="H41" s="29">
+      <c r="H41" s="28">
         <v>24.51</v>
       </c>
-      <c r="I41" s="29">
+      <c r="I41" s="28">
         <v>18.97</v>
       </c>
-      <c r="J41" s="30">
+      <c r="J41" s="29">
         <v>0</v>
       </c>
       <c r="K41" s="15">
@@ -3492,22 +3075,22 @@
       <c r="D42" s="8">
         <v>2834</v>
       </c>
-      <c r="E42" s="28">
+      <c r="E42" s="27">
         <v>0.871</v>
       </c>
-      <c r="F42" s="29">
+      <c r="F42" s="28">
         <v>18.207000000000001</v>
       </c>
       <c r="G42" s="16">
         <v>3.95619298917262</v>
       </c>
-      <c r="H42" s="29">
+      <c r="H42" s="28">
         <v>4.6989999999999998</v>
       </c>
-      <c r="I42" s="29">
+      <c r="I42" s="28">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="J42" s="30">
+      <c r="J42" s="29">
         <v>0</v>
       </c>
       <c r="K42" s="15">
@@ -3530,22 +3113,22 @@
       <c r="D43" s="10">
         <v>2836</v>
       </c>
-      <c r="E43" s="31">
+      <c r="E43" s="30">
         <v>5.4539999999999997</v>
       </c>
-      <c r="F43" s="32">
+      <c r="F43" s="31">
         <v>10.772</v>
       </c>
       <c r="G43" s="17">
         <v>5.4725311439478279</v>
       </c>
-      <c r="H43" s="32">
+      <c r="H43" s="31">
         <v>50.475999999999999</v>
       </c>
-      <c r="I43" s="32">
+      <c r="I43" s="31">
         <v>184.011</v>
       </c>
-      <c r="J43" s="30">
+      <c r="J43" s="29">
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="K43" s="15">
@@ -3568,22 +3151,22 @@
       <c r="D44" s="8">
         <v>2834</v>
       </c>
-      <c r="E44" s="28">
+      <c r="E44" s="27">
         <v>3.5430000000000001</v>
       </c>
-      <c r="F44" s="29">
+      <c r="F44" s="28">
         <v>21.106999999999999</v>
       </c>
       <c r="G44" s="16">
         <v>11.739160233545469</v>
       </c>
-      <c r="H44" s="29">
+      <c r="H44" s="28">
         <v>15.055</v>
       </c>
-      <c r="I44" s="29">
+      <c r="I44" s="28">
         <v>3.4380000000000002</v>
       </c>
-      <c r="J44" s="30">
+      <c r="J44" s="29">
         <v>1.3016000000000001</v>
       </c>
       <c r="K44" s="15">
@@ -3606,22 +3189,22 @@
       <c r="D45" s="8">
         <v>2836</v>
       </c>
-      <c r="E45" s="28">
+      <c r="E45" s="27">
         <v>6.1589999999999998</v>
       </c>
-      <c r="F45" s="29">
+      <c r="F45" s="28">
         <v>-16.027000000000001</v>
       </c>
       <c r="G45" s="16">
         <v>5.6204081120677074</v>
       </c>
-      <c r="H45" s="29">
+      <c r="H45" s="28">
         <v>-36.124000000000002</v>
       </c>
-      <c r="I45" s="29">
+      <c r="I45" s="28">
         <v>148.27600000000001</v>
       </c>
-      <c r="J45" s="30">
+      <c r="J45" s="29">
         <v>-1.4999999999999999E-2</v>
       </c>
       <c r="K45" s="15">
@@ -3644,22 +3227,22 @@
       <c r="D46" s="8">
         <v>2834</v>
       </c>
-      <c r="E46" s="28">
+      <c r="E46" s="27">
         <v>13.653</v>
       </c>
-      <c r="F46" s="29">
+      <c r="F46" s="28">
         <v>25.805</v>
       </c>
       <c r="G46" s="16">
         <v>9.4353608008532461</v>
       </c>
-      <c r="H46" s="29">
+      <c r="H46" s="28">
         <v>65.718999999999994</v>
       </c>
-      <c r="I46" s="29">
+      <c r="I46" s="28">
         <v>7.8570000000000002</v>
       </c>
-      <c r="J46" s="30">
+      <c r="J46" s="29">
         <v>1.9400000000000001E-2</v>
       </c>
       <c r="K46" s="15">
@@ -3682,22 +3265,22 @@
       <c r="D47" s="10">
         <v>2836</v>
       </c>
-      <c r="E47" s="31">
+      <c r="E47" s="30">
         <v>3.1139999999999999</v>
       </c>
-      <c r="F47" s="32">
+      <c r="F47" s="31">
         <v>-5.5609999999999999</v>
       </c>
       <c r="G47" s="17">
         <v>2.4098238436636441</v>
       </c>
-      <c r="H47" s="32">
+      <c r="H47" s="31">
         <v>-56.018000000000001</v>
       </c>
-      <c r="I47" s="32">
+      <c r="I47" s="31">
         <v>7.9580000000000002</v>
       </c>
-      <c r="J47" s="30">
+      <c r="J47" s="29">
         <v>-1.12E-2</v>
       </c>
       <c r="K47" s="15">
@@ -3720,22 +3303,22 @@
       <c r="D48" s="8">
         <v>2836</v>
       </c>
-      <c r="E48" s="28">
+      <c r="E48" s="27">
         <v>6.5359999999999996</v>
       </c>
-      <c r="F48" s="29">
+      <c r="F48" s="28">
         <v>-1599</v>
       </c>
       <c r="G48" s="16">
         <v>4.5861708359783089</v>
       </c>
-      <c r="H48" s="29">
+      <c r="H48" s="28">
         <v>-0.29299999999999998</v>
       </c>
-      <c r="I48" s="29">
+      <c r="I48" s="28">
         <v>6.0960000000000001</v>
       </c>
-      <c r="J48" s="30">
+      <c r="J48" s="29">
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="K48" s="15">
@@ -3758,22 +3341,22 @@
       <c r="D49" s="8">
         <v>2834</v>
       </c>
-      <c r="E49" s="28">
+      <c r="E49" s="27">
         <v>2.2440000000000002</v>
       </c>
-      <c r="F49" s="29">
+      <c r="F49" s="28">
         <v>81.888000000000005</v>
       </c>
       <c r="G49" s="16">
         <v>9.5382186431788849</v>
       </c>
-      <c r="H49" s="29">
+      <c r="H49" s="28">
         <v>2.3620000000000001</v>
       </c>
-      <c r="I49" s="29">
+      <c r="I49" s="28">
         <v>15.138</v>
       </c>
-      <c r="J49" s="30">
+      <c r="J49" s="29">
         <v>2.9298000000000002</v>
       </c>
       <c r="K49" s="15">
@@ -3796,22 +3379,22 @@
       <c r="D50" s="8">
         <v>2834</v>
       </c>
-      <c r="E50" s="28">
+      <c r="E50" s="27">
         <v>2.754</v>
       </c>
-      <c r="F50" s="29">
+      <c r="F50" s="28">
         <v>21.783000000000001</v>
       </c>
       <c r="G50" s="16">
         <v>12.039273982789499</v>
       </c>
-      <c r="H50" s="29">
+      <c r="H50" s="28">
         <v>12.75</v>
       </c>
-      <c r="I50" s="29">
+      <c r="I50" s="28">
         <v>-0.13200000000000001</v>
       </c>
-      <c r="J50" s="30">
+      <c r="J50" s="29">
         <v>1.8544</v>
       </c>
       <c r="K50" s="15">
@@ -3834,22 +3417,22 @@
       <c r="D51" s="10">
         <v>2836</v>
       </c>
-      <c r="E51" s="31">
+      <c r="E51" s="30">
         <v>6.2770000000000001</v>
       </c>
-      <c r="F51" s="32">
+      <c r="F51" s="31">
         <v>-10.647</v>
       </c>
       <c r="G51" s="17">
         <v>3.0900419530247318</v>
       </c>
-      <c r="H51" s="32">
+      <c r="H51" s="31">
         <v>-54.475999999999999</v>
       </c>
-      <c r="I51" s="32">
+      <c r="I51" s="31">
         <v>-18.038</v>
       </c>
-      <c r="J51" s="30">
+      <c r="J51" s="29">
         <v>-7.4300000000000005E-2</v>
       </c>
       <c r="K51" s="15">
@@ -3872,22 +3455,22 @@
       <c r="D52" s="8">
         <v>2834</v>
       </c>
-      <c r="E52" s="28">
+      <c r="E52" s="27">
         <v>5.49</v>
       </c>
-      <c r="F52" s="29">
+      <c r="F52" s="28">
         <v>12.698</v>
       </c>
       <c r="G52" s="16">
         <v>3.9210620300788159</v>
       </c>
-      <c r="H52" s="29">
+      <c r="H52" s="28">
         <v>42.094000000000001</v>
       </c>
-      <c r="I52" s="29">
+      <c r="I52" s="28">
         <v>0.128</v>
       </c>
-      <c r="J52" s="30">
+      <c r="J52" s="29">
         <v>0</v>
       </c>
       <c r="K52" s="15">
@@ -3910,22 +3493,22 @@
       <c r="D53" s="10">
         <v>2836</v>
       </c>
-      <c r="E53" s="31">
+      <c r="E53" s="30">
         <v>4.21</v>
       </c>
-      <c r="F53" s="32">
+      <c r="F53" s="31">
         <v>126</v>
       </c>
       <c r="G53" s="17">
         <v>5.0816341522459441</v>
       </c>
-      <c r="H53" s="32">
+      <c r="H53" s="31">
         <v>3.5310000000000001</v>
       </c>
-      <c r="I53" s="32">
+      <c r="I53" s="31">
         <v>-1.9410000000000001</v>
       </c>
-      <c r="J53" s="30">
+      <c r="J53" s="29">
         <v>0</v>
       </c>
       <c r="K53" s="15">
@@ -3948,22 +3531,22 @@
       <c r="D54" s="8">
         <v>2834</v>
       </c>
-      <c r="E54" s="28">
+      <c r="E54" s="27">
         <v>16.087</v>
       </c>
-      <c r="F54" s="29">
+      <c r="F54" s="28">
         <v>118.569</v>
       </c>
       <c r="G54" s="16">
         <v>8.2614817676462309</v>
       </c>
-      <c r="H54" s="29">
+      <c r="H54" s="28">
         <v>13.691000000000001</v>
       </c>
-      <c r="I54" s="29">
+      <c r="I54" s="28">
         <v>49.363999999999997</v>
       </c>
-      <c r="J54" s="30">
+      <c r="J54" s="29">
         <v>0.51080000000000003</v>
       </c>
       <c r="K54" s="15">
@@ -3986,22 +3569,22 @@
       <c r="D55" s="8">
         <v>2834</v>
       </c>
-      <c r="E55" s="28">
+      <c r="E55" s="27">
         <v>1.554</v>
       </c>
-      <c r="F55" s="29">
+      <c r="F55" s="28">
         <v>-2.1829999999999998</v>
       </c>
       <c r="G55" s="16">
         <v>5.0378288417803851</v>
       </c>
-      <c r="H55" s="29">
+      <c r="H55" s="28">
         <v>-70.885999999999996</v>
       </c>
-      <c r="I55" s="29">
+      <c r="I55" s="28">
         <v>61.539000000000001</v>
       </c>
-      <c r="J55" s="30">
+      <c r="J55" s="29">
         <v>0</v>
       </c>
       <c r="K55" s="15">
@@ -4024,22 +3607,22 @@
       <c r="D56" s="8">
         <v>2834</v>
       </c>
-      <c r="E56" s="28">
+      <c r="E56" s="27">
         <v>9.6790000000000003</v>
       </c>
-      <c r="F56" s="29">
+      <c r="F56" s="28">
         <v>24.603999999999999</v>
       </c>
       <c r="G56" s="16">
         <v>11.24037561408915</v>
       </c>
-      <c r="H56" s="29">
+      <c r="H56" s="28">
         <v>47.646000000000001</v>
       </c>
-      <c r="I56" s="29">
+      <c r="I56" s="28">
         <v>0.155</v>
       </c>
-      <c r="J56" s="30">
+      <c r="J56" s="29">
         <v>1.4351</v>
       </c>
       <c r="K56" s="15">
@@ -4062,22 +3645,22 @@
       <c r="D57" s="8">
         <v>2835</v>
       </c>
-      <c r="E57" s="28">
+      <c r="E57" s="27">
         <v>1.758</v>
       </c>
-      <c r="F57" s="29">
+      <c r="F57" s="28">
         <v>-1.752</v>
       </c>
       <c r="G57" s="16">
         <v>2.849434015936692</v>
       </c>
-      <c r="H57" s="29">
+      <c r="H57" s="28">
         <v>-96.421999999999997</v>
       </c>
-      <c r="I57" s="29">
+      <c r="I57" s="28">
         <v>54.652000000000001</v>
       </c>
-      <c r="J57" s="30">
+      <c r="J57" s="29">
         <v>0</v>
       </c>
       <c r="K57" s="15">
@@ -4100,22 +3683,22 @@
       <c r="D58" s="8">
         <v>2834</v>
       </c>
-      <c r="E58" s="28">
+      <c r="E58" s="27">
         <v>1.782</v>
       </c>
-      <c r="F58" s="29">
+      <c r="F58" s="28">
         <v>22.579000000000001</v>
       </c>
       <c r="G58" s="16">
         <v>11.677202383798839</v>
       </c>
-      <c r="H58" s="29">
+      <c r="H58" s="28">
         <v>7.8230000000000004</v>
       </c>
-      <c r="I58" s="29">
+      <c r="I58" s="28">
         <v>-1.3009999999999999</v>
       </c>
-      <c r="J58" s="30">
+      <c r="J58" s="29">
         <v>1.4330000000000001</v>
       </c>
       <c r="K58" s="15">
@@ -4138,22 +3721,22 @@
       <c r="D59" s="8">
         <v>2834</v>
       </c>
-      <c r="E59" s="28">
+      <c r="E59" s="27">
         <v>2.8639999999999999</v>
       </c>
-      <c r="F59" s="29">
+      <c r="F59" s="28">
         <v>17.878</v>
       </c>
       <c r="G59" s="16">
         <v>5.2030776842587034</v>
       </c>
-      <c r="H59" s="29">
+      <c r="H59" s="28">
         <v>16.234999999999999</v>
       </c>
-      <c r="I59" s="29">
+      <c r="I59" s="28">
         <v>13.231999999999999</v>
       </c>
-      <c r="J59" s="30">
+      <c r="J59" s="29">
         <v>0</v>
       </c>
       <c r="K59" s="15">
@@ -4176,22 +3759,22 @@
       <c r="D60" s="8">
         <v>2836</v>
       </c>
-      <c r="E60" s="28">
+      <c r="E60" s="27">
         <v>18.88</v>
       </c>
-      <c r="F60" s="29">
+      <c r="F60" s="28">
         <v>-51.823</v>
       </c>
       <c r="G60" s="16">
         <v>6.1289739544298456</v>
       </c>
-      <c r="H60" s="29">
+      <c r="H60" s="28">
         <v>-36.113999999999997</v>
       </c>
-      <c r="I60" s="29">
+      <c r="I60" s="28">
         <v>40.722000000000001</v>
       </c>
-      <c r="J60" s="30">
+      <c r="J60" s="29">
         <v>0</v>
       </c>
       <c r="K60" s="15">
@@ -4214,22 +3797,22 @@
       <c r="D61" s="8">
         <v>2834</v>
       </c>
-      <c r="E61" s="28">
+      <c r="E61" s="27">
         <v>4.8250000000000002</v>
       </c>
-      <c r="F61" s="29">
+      <c r="F61" s="28">
         <v>12.659000000000001</v>
       </c>
       <c r="G61" s="16">
         <v>9.5201825847229422</v>
       </c>
-      <c r="H61" s="29">
+      <c r="H61" s="28">
         <v>37.895000000000003</v>
       </c>
-      <c r="I61" s="29">
+      <c r="I61" s="28">
         <v>14.895</v>
       </c>
-      <c r="J61" s="30">
+      <c r="J61" s="29">
         <v>0.30940000000000001</v>
       </c>
       <c r="K61" s="15">
@@ -4252,22 +3835,22 @@
       <c r="D62" s="8">
         <v>2836</v>
       </c>
-      <c r="E62" s="28">
+      <c r="E62" s="27">
         <v>5.2229999999999999</v>
       </c>
-      <c r="F62" s="29">
+      <c r="F62" s="28">
         <v>32.683</v>
       </c>
       <c r="G62" s="16">
         <v>8.3416486189013064</v>
       </c>
-      <c r="H62" s="29">
+      <c r="H62" s="28">
         <v>15.974</v>
       </c>
-      <c r="I62" s="29">
+      <c r="I62" s="28">
         <v>5.335</v>
       </c>
-      <c r="J62" s="30">
+      <c r="J62" s="29">
         <v>0.52539999999999998</v>
       </c>
       <c r="K62" s="15">
@@ -4290,22 +3873,22 @@
       <c r="D63" s="10">
         <v>2836</v>
       </c>
-      <c r="E63" s="31">
+      <c r="E63" s="30">
         <v>2.302</v>
       </c>
-      <c r="F63" s="32">
+      <c r="F63" s="31">
         <v>-261.5</v>
       </c>
       <c r="G63" s="17">
         <v>5.4744950885815014</v>
       </c>
-      <c r="H63" s="32">
+      <c r="H63" s="31">
         <v>-0.67200000000000004</v>
       </c>
-      <c r="I63" s="32">
+      <c r="I63" s="31">
         <v>-5.6050000000000004</v>
       </c>
-      <c r="J63" s="30">
+      <c r="J63" s="29">
         <v>5.8315999999999999</v>
       </c>
       <c r="K63" s="15">
@@ -4328,22 +3911,22 @@
       <c r="D64" s="8">
         <v>2835</v>
       </c>
-      <c r="E64" s="28">
+      <c r="E64" s="27">
         <v>6.8789999999999996</v>
       </c>
-      <c r="F64" s="29">
+      <c r="F64" s="28">
         <v>-5.82</v>
       </c>
       <c r="G64" s="16">
         <v>2.324835701928865</v>
       </c>
-      <c r="H64" s="29">
+      <c r="H64" s="28">
         <v>-107.61499999999999</v>
       </c>
-      <c r="I64" s="29">
+      <c r="I64" s="28">
         <v>-4.0270000000000001</v>
       </c>
-      <c r="J64" s="30">
+      <c r="J64" s="29">
         <v>0</v>
       </c>
       <c r="K64" s="15">
@@ -4366,22 +3949,22 @@
       <c r="D65" s="8">
         <v>2834</v>
       </c>
-      <c r="E65" s="28">
+      <c r="E65" s="27">
         <v>2.359</v>
       </c>
-      <c r="F65" s="29">
+      <c r="F65" s="28">
         <v>16.064</v>
       </c>
       <c r="G65" s="16">
         <v>10.74548567982843</v>
       </c>
-      <c r="H65" s="29">
+      <c r="H65" s="28">
         <v>13.103999999999999</v>
       </c>
-      <c r="I65" s="29">
+      <c r="I65" s="28">
         <v>7.8410000000000002</v>
       </c>
-      <c r="J65" s="30">
+      <c r="J65" s="29">
         <v>1.67</v>
       </c>
       <c r="K65" s="15">
@@ -4404,22 +3987,22 @@
       <c r="D66" s="8">
         <v>2835</v>
       </c>
-      <c r="E66" s="28">
+      <c r="E66" s="27">
         <v>1.978</v>
       </c>
-      <c r="F66" s="29">
+      <c r="F66" s="28">
         <v>23.039000000000001</v>
       </c>
       <c r="G66" s="16">
         <v>5.4923945543528454</v>
       </c>
-      <c r="H66" s="29">
+      <c r="H66" s="28">
         <v>8.7390000000000008</v>
       </c>
-      <c r="I66" s="29">
+      <c r="I66" s="28">
         <v>-3.5790000000000002</v>
       </c>
-      <c r="J66" s="30">
+      <c r="J66" s="29">
         <v>0</v>
       </c>
       <c r="K66" s="15">
@@ -4442,22 +4025,22 @@
       <c r="D67" s="8">
         <v>2834</v>
       </c>
-      <c r="E67" s="28">
+      <c r="E67" s="27">
         <v>4.952</v>
       </c>
-      <c r="F67" s="29">
+      <c r="F67" s="28">
         <v>18.341000000000001</v>
       </c>
       <c r="G67" s="16">
         <v>7.5413700535407378</v>
       </c>
-      <c r="H67" s="29">
+      <c r="H67" s="28">
         <v>27.373000000000001</v>
       </c>
-      <c r="I67" s="29">
+      <c r="I67" s="28">
         <v>28.355</v>
       </c>
-      <c r="J67" s="30">
+      <c r="J67" s="29">
         <v>0.2215</v>
       </c>
       <c r="K67" s="15">
@@ -4480,22 +4063,22 @@
       <c r="D68" s="10">
         <v>2836</v>
       </c>
-      <c r="E68" s="31">
+      <c r="E68" s="30">
         <v>3.464</v>
       </c>
-      <c r="F68" s="32">
+      <c r="F68" s="31">
         <v>24.69</v>
       </c>
       <c r="G68" s="17">
         <v>5.145772064079364</v>
       </c>
-      <c r="H68" s="32">
+      <c r="H68" s="31">
         <v>12.552</v>
       </c>
-      <c r="I68" s="32">
+      <c r="I68" s="31">
         <v>61.622999999999998</v>
       </c>
-      <c r="J68" s="30">
+      <c r="J68" s="29">
         <v>0</v>
       </c>
       <c r="K68" s="15">
@@ -4518,22 +4101,22 @@
       <c r="D69" s="10">
         <v>2835</v>
       </c>
-      <c r="E69" s="31">
+      <c r="E69" s="30">
         <v>2.3159999999999998</v>
       </c>
-      <c r="F69" s="32">
+      <c r="F69" s="31">
         <v>-4.9169999999999998</v>
       </c>
       <c r="G69" s="17">
         <v>3.3577330102480709</v>
       </c>
-      <c r="H69" s="32">
+      <c r="H69" s="31">
         <v>-44.091000000000001</v>
       </c>
-      <c r="I69" s="32">
+      <c r="I69" s="31">
         <v>-12.233000000000001</v>
       </c>
-      <c r="J69" s="30">
+      <c r="J69" s="29">
         <v>-0.2263</v>
       </c>
       <c r="K69" s="15">
@@ -4556,22 +4139,22 @@
       <c r="D70" s="8">
         <v>2834</v>
       </c>
-      <c r="E70" s="28">
+      <c r="E70" s="27">
         <v>26.58</v>
       </c>
-      <c r="F70" s="29">
+      <c r="F70" s="28">
         <v>-37.834000000000003</v>
       </c>
       <c r="G70" s="16">
         <v>7.7556296874192823</v>
       </c>
-      <c r="H70" s="29">
+      <c r="H70" s="28">
         <v>-68.617999999999995</v>
       </c>
-      <c r="I70" s="29">
+      <c r="I70" s="28">
         <v>41.619</v>
       </c>
-      <c r="J70" s="30">
+      <c r="J70" s="29">
         <v>-1.5014000000000001</v>
       </c>
       <c r="K70" s="15">
@@ -4594,22 +4177,22 @@
       <c r="D71" s="8">
         <v>2836</v>
       </c>
-      <c r="E71" s="28">
+      <c r="E71" s="27">
         <v>1.827</v>
       </c>
-      <c r="F71" s="29">
+      <c r="F71" s="28">
         <v>-5.5259999999999998</v>
       </c>
       <c r="G71" s="16">
         <v>4.060080876018108</v>
       </c>
-      <c r="H71" s="29">
+      <c r="H71" s="28">
         <v>-31.763000000000002</v>
       </c>
-      <c r="I71" s="29">
+      <c r="I71" s="28">
         <v>3.7050000000000001</v>
       </c>
-      <c r="J71" s="30">
+      <c r="J71" s="29">
         <v>0</v>
       </c>
       <c r="K71" s="15">
@@ -4632,22 +4215,22 @@
       <c r="D72" s="10">
         <v>2836</v>
       </c>
-      <c r="E72" s="31">
+      <c r="E72" s="30">
         <v>5.9889999999999999</v>
       </c>
-      <c r="F72" s="32">
+      <c r="F72" s="31">
         <v>-10.827</v>
       </c>
       <c r="G72" s="17">
         <v>4.8126801673966684</v>
       </c>
-      <c r="H72" s="32">
+      <c r="H72" s="31">
         <v>-54.128999999999998</v>
       </c>
-      <c r="I72" s="32">
+      <c r="I72" s="31">
         <v>6.46</v>
       </c>
-      <c r="J72" s="30">
+      <c r="J72" s="29">
         <v>0</v>
       </c>
       <c r="K72" s="15">
@@ -4706,8 +4289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -4920,2192 +4503,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E128"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B1" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A2" s="36">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>20664.31869582256</v>
-      </c>
-      <c r="D2">
-        <v>2.263967259881206E-4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A3" s="36">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>20499.917399824149</v>
-      </c>
-      <c r="D3">
-        <v>8.1804008479086088E-3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A4" s="36">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>12314.092722404799</v>
-      </c>
-      <c r="D4">
-        <v>0.40422401370446592</v>
-      </c>
-      <c r="E4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A5" s="36">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>20335.726780666249</v>
-      </c>
-      <c r="D5">
-        <v>1.612421207902703E-2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A6" s="36">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>20622.483745054971</v>
-      </c>
-      <c r="D6">
-        <v>2.2504402034131399E-3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A7" s="36">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>20320.38394175452</v>
-      </c>
-      <c r="D7">
-        <v>1.6866523769483721E-2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A8" s="36">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>20658.191972266672</v>
-      </c>
-      <c r="D8">
-        <v>5.228176521220318E-4</v>
-      </c>
-      <c r="E8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A9" s="36">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>20481.315989104489</v>
-      </c>
-      <c r="D9">
-        <v>9.0803675825937846E-3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A10" s="36">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>12306.00600199118</v>
-      </c>
-      <c r="D10">
-        <v>0.40461526249062751</v>
-      </c>
-      <c r="E10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A11" s="36">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>20325.608018579838</v>
-      </c>
-      <c r="D11">
-        <v>1.6613774371436411E-2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A12" s="36">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>20616.1211183819</v>
-      </c>
-      <c r="D12">
-        <v>2.5582745089549612E-3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A13" s="36">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>20288.300087512631</v>
-      </c>
-      <c r="D13">
-        <v>1.8418793216857909E-2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A14" s="36">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>20653.893670714901</v>
-      </c>
-      <c r="D14">
-        <v>7.3077652527053782E-4</v>
-      </c>
-      <c r="E14" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A15" s="36">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>11954.85144338248</v>
-      </c>
-      <c r="D15">
-        <v>0.4216046955096453</v>
-      </c>
-      <c r="E15" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A16" s="36">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>20162.78612448875</v>
-      </c>
-      <c r="D16">
-        <v>2.4491364440750171E-2</v>
-      </c>
-      <c r="E16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A17" s="36">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>20482.21160878822</v>
-      </c>
-      <c r="D17">
-        <v>9.0370360345496392E-3</v>
-      </c>
-      <c r="E17" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A18" s="36">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>20304.472777028968</v>
-      </c>
-      <c r="D18">
-        <v>1.7636331994187682E-2</v>
-      </c>
-      <c r="E18" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A19" s="36">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>20494.828392946951</v>
-      </c>
-      <c r="D19">
-        <v>8.4266153405128108E-3</v>
-      </c>
-      <c r="E19" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A20" s="36">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>12312.620172798061</v>
-      </c>
-      <c r="D20">
-        <v>0.40429525806766009</v>
-      </c>
-      <c r="E20" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A21" s="36">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>12307.368475179779</v>
-      </c>
-      <c r="D21">
-        <v>0.40454934380493612</v>
-      </c>
-      <c r="E21" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A22" s="36">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <v>12313.98600426936</v>
-      </c>
-      <c r="D22">
-        <v>0.4042291769027484</v>
-      </c>
-      <c r="E22" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A23" s="36">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>12191.211271485419</v>
-      </c>
-      <c r="D23">
-        <v>0.41016921967857078</v>
-      </c>
-      <c r="E23" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A24" s="36">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>20318.170691312182</v>
-      </c>
-      <c r="D24">
-        <v>1.6973604452968031E-2</v>
-      </c>
-      <c r="E24" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A25" s="36">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25">
-        <v>19945.08786280291</v>
-      </c>
-      <c r="D25">
-        <v>3.5023963105914047E-2</v>
-      </c>
-      <c r="E25" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A26" s="36">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26">
-        <v>20335.653377902741</v>
-      </c>
-      <c r="D26">
-        <v>1.612776342501843E-2</v>
-      </c>
-      <c r="E26" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A27" s="36">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27">
-        <v>20301.717480713611</v>
-      </c>
-      <c r="D27">
-        <v>1.7769637745315921E-2</v>
-      </c>
-      <c r="E27" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A28" s="36">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28">
-        <v>20611.052079857222</v>
-      </c>
-      <c r="D28">
-        <v>2.8035228999400141E-3</v>
-      </c>
-      <c r="E28" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A29" s="36">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29">
-        <v>20288.656433639699</v>
-      </c>
-      <c r="D29">
-        <v>1.8401552607249069E-2</v>
-      </c>
-      <c r="E29" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A30" s="36">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
-      <c r="C30">
-        <v>11954.727197871231</v>
-      </c>
-      <c r="D30">
-        <v>0.42161070671109369</v>
-      </c>
-      <c r="E30" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A31" s="36">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>3</v>
-      </c>
-      <c r="C31">
-        <v>20133.860583616159</v>
-      </c>
-      <c r="D31">
-        <v>2.5890829511460819E-2</v>
-      </c>
-      <c r="E31" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A32" s="36">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>3</v>
-      </c>
-      <c r="C32">
-        <v>20462.89380287904</v>
-      </c>
-      <c r="D32">
-        <v>9.9716631425351698E-3</v>
-      </c>
-      <c r="E32" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A33" s="36">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>3</v>
-      </c>
-      <c r="C33">
-        <v>20268.448376803452</v>
-      </c>
-      <c r="D33">
-        <v>1.9379251514032969E-2</v>
-      </c>
-      <c r="E33" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A34" s="36">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>3</v>
-      </c>
-      <c r="C34">
-        <v>20473.916619272</v>
-      </c>
-      <c r="D34">
-        <v>9.4383612212071144E-3</v>
-      </c>
-      <c r="E34" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A35" s="36">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>3</v>
-      </c>
-      <c r="C35">
-        <v>12304.123191135441</v>
-      </c>
-      <c r="D35">
-        <v>0.40470635596538618</v>
-      </c>
-      <c r="E35" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A36" s="36">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>3</v>
-      </c>
-      <c r="C36">
-        <v>12300.006301388859</v>
-      </c>
-      <c r="D36">
-        <v>0.40490553783810151</v>
-      </c>
-      <c r="E36" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A37" s="36">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>3</v>
-      </c>
-      <c r="C37">
-        <v>12305.254656416921</v>
-      </c>
-      <c r="D37">
-        <v>0.40465161382081838</v>
-      </c>
-      <c r="E37" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A38" s="36">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>3</v>
-      </c>
-      <c r="C38">
-        <v>12181.17585709682</v>
-      </c>
-      <c r="D38">
-        <v>0.41065474947276931</v>
-      </c>
-      <c r="E38" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A39" s="36">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>3</v>
-      </c>
-      <c r="C39">
-        <v>20306.805889942101</v>
-      </c>
-      <c r="D39">
-        <v>1.7523452167935272E-2</v>
-      </c>
-      <c r="E39" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A40" s="36">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>3</v>
-      </c>
-      <c r="C40">
-        <v>19896.30840848259</v>
-      </c>
-      <c r="D40">
-        <v>3.7383993045900787E-2</v>
-      </c>
-      <c r="E40" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A41" s="36">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>3</v>
-      </c>
-      <c r="C41">
-        <v>20325.58485154554</v>
-      </c>
-      <c r="D41">
-        <v>1.661489523052195E-2</v>
-      </c>
-      <c r="E41" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A42" s="36">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>3</v>
-      </c>
-      <c r="C42">
-        <v>20268.21802230653</v>
-      </c>
-      <c r="D42">
-        <v>1.939039644209983E-2</v>
-      </c>
-      <c r="E42" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A43" s="36">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>3</v>
-      </c>
-      <c r="C43">
-        <v>20605.136208212389</v>
-      </c>
-      <c r="D43">
-        <v>3.0897424650716539E-3</v>
-      </c>
-      <c r="E43" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A44" s="36">
-        <v>42</v>
-      </c>
-      <c r="B44">
-        <v>3</v>
-      </c>
-      <c r="C44">
-        <v>20247.553369440811</v>
-      </c>
-      <c r="D44">
-        <v>2.039018621306132E-2</v>
-      </c>
-      <c r="E44" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A45" s="36">
-        <v>43</v>
-      </c>
-      <c r="B45">
-        <v>3</v>
-      </c>
-      <c r="C45">
-        <v>11954.79212804768</v>
-      </c>
-      <c r="D45">
-        <v>0.42160756528274912</v>
-      </c>
-      <c r="E45" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A46" s="36">
-        <v>44</v>
-      </c>
-      <c r="B46">
-        <v>3</v>
-      </c>
-      <c r="C46">
-        <v>11953.985857063089</v>
-      </c>
-      <c r="D46">
-        <v>0.42164657399430377</v>
-      </c>
-      <c r="E46" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A47" s="36">
-        <v>45</v>
-      </c>
-      <c r="B47">
-        <v>3</v>
-      </c>
-      <c r="C47">
-        <v>11837.67985862682</v>
-      </c>
-      <c r="D47">
-        <v>0.42727364880139718</v>
-      </c>
-      <c r="E47" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A48" s="36">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>3</v>
-      </c>
-      <c r="C48">
-        <v>11938.07309661647</v>
-      </c>
-      <c r="D48">
-        <v>0.42241645942260808</v>
-      </c>
-      <c r="E48" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A49" s="36">
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <v>3</v>
-      </c>
-      <c r="C49">
-        <v>20160.706950429161</v>
-      </c>
-      <c r="D49">
-        <v>2.459195828911187E-2</v>
-      </c>
-      <c r="E49" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A50" s="36">
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <v>3</v>
-      </c>
-      <c r="C50">
-        <v>19932.846527053291</v>
-      </c>
-      <c r="D50">
-        <v>3.5616218990631943E-2</v>
-      </c>
-      <c r="E50" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A51" s="36">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>3</v>
-      </c>
-      <c r="C51">
-        <v>20129.677273951471</v>
-      </c>
-      <c r="D51">
-        <v>2.609322488866361E-2</v>
-      </c>
-      <c r="E51" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A52" s="36">
-        <v>50</v>
-      </c>
-      <c r="B52">
-        <v>3</v>
-      </c>
-      <c r="C52">
-        <v>20290.621363551669</v>
-      </c>
-      <c r="D52">
-        <v>1.8306486077972809E-2</v>
-      </c>
-      <c r="E52" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A53" s="36">
-        <v>51</v>
-      </c>
-      <c r="B53">
-        <v>3</v>
-      </c>
-      <c r="C53">
-        <v>20478.975065805709</v>
-      </c>
-      <c r="D53">
-        <v>9.1936252881037461E-3</v>
-      </c>
-      <c r="E53" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A54" s="36">
-        <v>52</v>
-      </c>
-      <c r="B54">
-        <v>3</v>
-      </c>
-      <c r="C54">
-        <v>20258.622005095858</v>
-      </c>
-      <c r="D54">
-        <v>1.98546674807446E-2</v>
-      </c>
-      <c r="E54" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A55" s="36">
-        <v>53</v>
-      </c>
-      <c r="B55">
-        <v>3</v>
-      </c>
-      <c r="C55">
-        <v>12304.91995614888</v>
-      </c>
-      <c r="D55">
-        <v>0.40466780716829409</v>
-      </c>
-      <c r="E55" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A56" s="36">
-        <v>54</v>
-      </c>
-      <c r="B56">
-        <v>3</v>
-      </c>
-      <c r="C56">
-        <v>12312.41824176865</v>
-      </c>
-      <c r="D56">
-        <v>0.40430502782178862</v>
-      </c>
-      <c r="E56" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A57" s="36">
-        <v>55</v>
-      </c>
-      <c r="B57">
-        <v>3</v>
-      </c>
-      <c r="C57">
-        <v>12183.37786433887</v>
-      </c>
-      <c r="D57">
-        <v>0.41054821275374048</v>
-      </c>
-      <c r="E57" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A58" s="36">
-        <v>56</v>
-      </c>
-      <c r="B58">
-        <v>3</v>
-      </c>
-      <c r="C58">
-        <v>12306.9611540681</v>
-      </c>
-      <c r="D58">
-        <v>0.40456905066783899</v>
-      </c>
-      <c r="E58" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A59" s="36">
-        <v>57</v>
-      </c>
-      <c r="B59">
-        <v>3</v>
-      </c>
-      <c r="C59">
-        <v>12182.627449011539</v>
-      </c>
-      <c r="D59">
-        <v>0.41058451907706017</v>
-      </c>
-      <c r="E59" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A60" s="36">
-        <v>58</v>
-      </c>
-      <c r="B60">
-        <v>3</v>
-      </c>
-      <c r="C60">
-        <v>12159.61722038159</v>
-      </c>
-      <c r="D60">
-        <v>0.41169779164743442</v>
-      </c>
-      <c r="E60" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A61" s="36">
-        <v>59</v>
-      </c>
-      <c r="B61">
-        <v>3</v>
-      </c>
-      <c r="C61">
-        <v>19943.368332616312</v>
-      </c>
-      <c r="D61">
-        <v>3.5107156794314857E-2</v>
-      </c>
-      <c r="E61" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A62" s="36">
-        <v>60</v>
-      </c>
-      <c r="B62">
-        <v>3</v>
-      </c>
-      <c r="C62">
-        <v>20317.982110427591</v>
-      </c>
-      <c r="D62">
-        <v>1.698272830521164E-2</v>
-      </c>
-      <c r="E62" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A63" s="36">
-        <v>61</v>
-      </c>
-      <c r="B63">
-        <v>3</v>
-      </c>
-      <c r="C63">
-        <v>19844.818795574069</v>
-      </c>
-      <c r="D63">
-        <v>3.9875144899803372E-2</v>
-      </c>
-      <c r="E63" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A64" s="36">
-        <v>62</v>
-      </c>
-      <c r="B64">
-        <v>3</v>
-      </c>
-      <c r="C64">
-        <v>20273.744937727559</v>
-      </c>
-      <c r="D64">
-        <v>1.9122995216498739E-2</v>
-      </c>
-      <c r="E64" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A65" s="36">
-        <v>63</v>
-      </c>
-      <c r="B65">
-        <v>4</v>
-      </c>
-      <c r="C65">
-        <v>11954.65506290224</v>
-      </c>
-      <c r="D65">
-        <v>0.42161419671910833</v>
-      </c>
-      <c r="E65" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A66" s="36">
-        <v>64</v>
-      </c>
-      <c r="B66">
-        <v>4</v>
-      </c>
-      <c r="C66">
-        <v>11953.875068344219</v>
-      </c>
-      <c r="D66">
-        <v>0.42165193413408381</v>
-      </c>
-      <c r="E66" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A67" s="36">
-        <v>65</v>
-      </c>
-      <c r="B67">
-        <v>4</v>
-      </c>
-      <c r="C67">
-        <v>11836.7756090575</v>
-      </c>
-      <c r="D67">
-        <v>0.42731739787744849</v>
-      </c>
-      <c r="E67" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A68" s="36">
-        <v>66</v>
-      </c>
-      <c r="B68">
-        <v>4</v>
-      </c>
-      <c r="C68">
-        <v>11938.068013514179</v>
-      </c>
-      <c r="D68">
-        <v>0.42241670535142689</v>
-      </c>
-      <c r="E68" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A69" s="36">
-        <v>67</v>
-      </c>
-      <c r="B69">
-        <v>4</v>
-      </c>
-      <c r="C69">
-        <v>20131.610613535071</v>
-      </c>
-      <c r="D69">
-        <v>2.5999686751243981E-2</v>
-      </c>
-      <c r="E69" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A70" s="36">
-        <v>68</v>
-      </c>
-      <c r="B70">
-        <v>4</v>
-      </c>
-      <c r="C70">
-        <v>19879.836358365479</v>
-      </c>
-      <c r="D70">
-        <v>3.8180937825029397E-2</v>
-      </c>
-      <c r="E70" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A71" s="36">
-        <v>69</v>
-      </c>
-      <c r="B71">
-        <v>4</v>
-      </c>
-      <c r="C71">
-        <v>20092.542306190091</v>
-      </c>
-      <c r="D71">
-        <v>2.7889875485896169E-2</v>
-      </c>
-      <c r="E71" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A72" s="36">
-        <v>70</v>
-      </c>
-      <c r="B72">
-        <v>4</v>
-      </c>
-      <c r="C72">
-        <v>20253.899007643511</v>
-      </c>
-      <c r="D72">
-        <v>2.008317383755687E-2</v>
-      </c>
-      <c r="E72" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A73" s="36">
-        <v>71</v>
-      </c>
-      <c r="B73">
-        <v>4</v>
-      </c>
-      <c r="C73">
-        <v>20457.774952510608</v>
-      </c>
-      <c r="D73">
-        <v>1.0219321512152881E-2</v>
-      </c>
-      <c r="E73" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A74" s="36">
-        <v>72</v>
-      </c>
-      <c r="B74">
-        <v>4</v>
-      </c>
-      <c r="C74">
-        <v>20208.52816377017</v>
-      </c>
-      <c r="D74">
-        <v>2.2278289618073651E-2</v>
-      </c>
-      <c r="E74" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A75" s="36">
-        <v>73</v>
-      </c>
-      <c r="B75">
-        <v>4</v>
-      </c>
-      <c r="C75">
-        <v>12297.11889040475</v>
-      </c>
-      <c r="D75">
-        <v>0.40504523551341359</v>
-      </c>
-      <c r="E75" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A76" s="36">
-        <v>74</v>
-      </c>
-      <c r="B76">
-        <v>4</v>
-      </c>
-      <c r="C76">
-        <v>12303.07001746849</v>
-      </c>
-      <c r="D76">
-        <v>0.40475731023333861</v>
-      </c>
-      <c r="E76" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A77" s="36">
-        <v>75</v>
-      </c>
-      <c r="B77">
-        <v>4</v>
-      </c>
-      <c r="C77">
-        <v>12172.2146232717</v>
-      </c>
-      <c r="D77">
-        <v>0.41108830865093549</v>
-      </c>
-      <c r="E77" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A78" s="36">
-        <v>76</v>
-      </c>
-      <c r="B78">
-        <v>4</v>
-      </c>
-      <c r="C78">
-        <v>12298.69399756536</v>
-      </c>
-      <c r="D78">
-        <v>0.40496902924769118</v>
-      </c>
-      <c r="E78" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A79" s="36">
-        <v>77</v>
-      </c>
-      <c r="B79">
-        <v>4</v>
-      </c>
-      <c r="C79">
-        <v>12173.48999475719</v>
-      </c>
-      <c r="D79">
-        <v>0.41102660408838332</v>
-      </c>
-      <c r="E79" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A80" s="36">
-        <v>78</v>
-      </c>
-      <c r="B80">
-        <v>4</v>
-      </c>
-      <c r="C80">
-        <v>12139.33344040504</v>
-      </c>
-      <c r="D80">
-        <v>0.41267915416384138</v>
-      </c>
-      <c r="E80" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A81" s="36">
-        <v>79</v>
-      </c>
-      <c r="B81">
-        <v>4</v>
-      </c>
-      <c r="C81">
-        <v>19894.246158608479</v>
-      </c>
-      <c r="D81">
-        <v>3.7483768074433647E-2</v>
-      </c>
-      <c r="E81" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A82" s="36">
-        <v>80</v>
-      </c>
-      <c r="B82">
-        <v>4</v>
-      </c>
-      <c r="C82">
-        <v>20306.707191280169</v>
-      </c>
-      <c r="D82">
-        <v>1.7528227370947721E-2</v>
-      </c>
-      <c r="E82" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A83" s="36">
-        <v>81</v>
-      </c>
-      <c r="B83">
-        <v>4</v>
-      </c>
-      <c r="C83">
-        <v>19772.728373581831</v>
-      </c>
-      <c r="D83">
-        <v>4.3362997657866657E-2</v>
-      </c>
-      <c r="E83" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A84" s="36">
-        <v>82</v>
-      </c>
-      <c r="B84">
-        <v>4</v>
-      </c>
-      <c r="C84">
-        <v>20231.737685337572</v>
-      </c>
-      <c r="D84">
-        <v>2.1155374928783829E-2</v>
-      </c>
-      <c r="E84" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A85" s="36">
-        <v>83</v>
-      </c>
-      <c r="B85">
-        <v>4</v>
-      </c>
-      <c r="C85">
-        <v>11953.837627575969</v>
-      </c>
-      <c r="D85">
-        <v>0.4216537455798095</v>
-      </c>
-      <c r="E85" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A86" s="36">
-        <v>84</v>
-      </c>
-      <c r="B86">
-        <v>4</v>
-      </c>
-      <c r="C86">
-        <v>11837.40042070569</v>
-      </c>
-      <c r="D86">
-        <v>0.42728716846596548</v>
-      </c>
-      <c r="E86" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A87" s="36">
-        <v>85</v>
-      </c>
-      <c r="B87">
-        <v>4</v>
-      </c>
-      <c r="C87">
-        <v>11937.79965316241</v>
-      </c>
-      <c r="D87">
-        <v>0.42242968906503592</v>
-      </c>
-      <c r="E87" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A88" s="36">
-        <v>86</v>
-      </c>
-      <c r="B88">
-        <v>4</v>
-      </c>
-      <c r="C88">
-        <v>11837.36034143679</v>
-      </c>
-      <c r="D88">
-        <v>0.42728910756667682</v>
-      </c>
-      <c r="E88" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A89" s="36">
-        <v>87</v>
-      </c>
-      <c r="B89">
-        <v>4</v>
-      </c>
-      <c r="C89">
-        <v>11937.84794405854</v>
-      </c>
-      <c r="D89">
-        <v>0.42242735267234183</v>
-      </c>
-      <c r="E89" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A90" s="36">
-        <v>88</v>
-      </c>
-      <c r="B90">
-        <v>4</v>
-      </c>
-      <c r="C90">
-        <v>11778.38843696265</v>
-      </c>
-      <c r="D90">
-        <v>0.43014226494853441</v>
-      </c>
-      <c r="E90" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A91" s="36">
-        <v>89</v>
-      </c>
-      <c r="B91">
-        <v>4</v>
-      </c>
-      <c r="C91">
-        <v>19932.269837317392</v>
-      </c>
-      <c r="D91">
-        <v>3.5644120185135852E-2</v>
-      </c>
-      <c r="E91" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A92" s="36">
-        <v>90</v>
-      </c>
-      <c r="B92">
-        <v>4</v>
-      </c>
-      <c r="C92">
-        <v>20129.288688667861</v>
-      </c>
-      <c r="D92">
-        <v>2.6112025281499921E-2</v>
-      </c>
-      <c r="E92" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A93" s="36">
-        <v>91</v>
-      </c>
-      <c r="B93">
-        <v>4</v>
-      </c>
-      <c r="C93">
-        <v>19808.257953606641</v>
-      </c>
-      <c r="D93">
-        <v>4.1644018350244887E-2</v>
-      </c>
-      <c r="E93" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A94" s="36">
-        <v>92</v>
-      </c>
-      <c r="B94">
-        <v>4</v>
-      </c>
-      <c r="C94">
-        <v>20250.324049197781</v>
-      </c>
-      <c r="D94">
-        <v>2.0256136185817671E-2</v>
-      </c>
-      <c r="E94" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A95" s="36">
-        <v>93</v>
-      </c>
-      <c r="B95">
-        <v>4</v>
-      </c>
-      <c r="C95">
-        <v>12304.23741255534</v>
-      </c>
-      <c r="D95">
-        <v>0.40470082974590521</v>
-      </c>
-      <c r="E95" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A96" s="36">
-        <v>94</v>
-      </c>
-      <c r="B96">
-        <v>4</v>
-      </c>
-      <c r="C96">
-        <v>12172.21256460483</v>
-      </c>
-      <c r="D96">
-        <v>0.41108840825261228</v>
-      </c>
-      <c r="E96" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A97" s="36">
-        <v>95</v>
-      </c>
-      <c r="B97">
-        <v>4</v>
-      </c>
-      <c r="C97">
-        <v>12144.694322256601</v>
-      </c>
-      <c r="D97">
-        <v>0.41241978591442757</v>
-      </c>
-      <c r="E97" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A98" s="36">
-        <v>96</v>
-      </c>
-      <c r="B98">
-        <v>4</v>
-      </c>
-      <c r="C98">
-        <v>12145.269496692201</v>
-      </c>
-      <c r="D98">
-        <v>0.4123919580326354</v>
-      </c>
-      <c r="E98" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A99" s="36">
-        <v>97</v>
-      </c>
-      <c r="B99">
-        <v>4</v>
-      </c>
-      <c r="C99">
-        <v>19844.80991046003</v>
-      </c>
-      <c r="D99">
-        <v>3.9875574776181533E-2</v>
-      </c>
-      <c r="E99" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A100" s="36">
-        <v>98</v>
-      </c>
-      <c r="B100">
-        <v>5</v>
-      </c>
-      <c r="C100">
-        <v>11953.70847726234</v>
-      </c>
-      <c r="D100">
-        <v>0.4216599940836353</v>
-      </c>
-      <c r="E100" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A101" s="36">
-        <v>99</v>
-      </c>
-      <c r="B101">
-        <v>5</v>
-      </c>
-      <c r="C101">
-        <v>11836.409443637631</v>
-      </c>
-      <c r="D101">
-        <v>0.42733511356053538</v>
-      </c>
-      <c r="E101" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A102" s="36">
-        <v>100</v>
-      </c>
-      <c r="B102">
-        <v>5</v>
-      </c>
-      <c r="C102">
-        <v>11937.785486974601</v>
-      </c>
-      <c r="D102">
-        <v>0.42243037444841769</v>
-      </c>
-      <c r="E102" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A103" s="36">
-        <v>101</v>
-      </c>
-      <c r="B103">
-        <v>5</v>
-      </c>
-      <c r="C103">
-        <v>11836.43714906391</v>
-      </c>
-      <c r="D103">
-        <v>0.42733377312660792</v>
-      </c>
-      <c r="E103" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A104" s="36">
-        <v>102</v>
-      </c>
-      <c r="B104">
-        <v>5</v>
-      </c>
-      <c r="C104">
-        <v>11937.84218155163</v>
-      </c>
-      <c r="D104">
-        <v>0.42242763147186979</v>
-      </c>
-      <c r="E104" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A105" s="36">
-        <v>103</v>
-      </c>
-      <c r="B105">
-        <v>5</v>
-      </c>
-      <c r="C105">
-        <v>11773.95069735974</v>
-      </c>
-      <c r="D105">
-        <v>0.43035697006310869</v>
-      </c>
-      <c r="E105" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A106" s="36">
-        <v>104</v>
-      </c>
-      <c r="B106">
-        <v>5</v>
-      </c>
-      <c r="C106">
-        <v>19879.199192840941</v>
-      </c>
-      <c r="D106">
-        <v>3.8211764937296278E-2</v>
-      </c>
-      <c r="E106" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A107" s="36">
-        <v>105</v>
-      </c>
-      <c r="B107">
-        <v>5</v>
-      </c>
-      <c r="C107">
-        <v>20092.198766248221</v>
-      </c>
-      <c r="D107">
-        <v>2.790649651127897E-2</v>
-      </c>
-      <c r="E107" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A108" s="36">
-        <v>106</v>
-      </c>
-      <c r="B108">
-        <v>5</v>
-      </c>
-      <c r="C108">
-        <v>19722.547932457441</v>
-      </c>
-      <c r="D108">
-        <v>4.5790809635377072E-2</v>
-      </c>
-      <c r="E108" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A109" s="36">
-        <v>107</v>
-      </c>
-      <c r="B109">
-        <v>5</v>
-      </c>
-      <c r="C109">
-        <v>20200.373802194921</v>
-      </c>
-      <c r="D109">
-        <v>2.267281099448526E-2</v>
-      </c>
-      <c r="E109" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A110" s="36">
-        <v>108</v>
-      </c>
-      <c r="B110">
-        <v>5</v>
-      </c>
-      <c r="C110">
-        <v>12295.232409494331</v>
-      </c>
-      <c r="D110">
-        <v>0.4051365065514323</v>
-      </c>
-      <c r="E110" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A111" s="36">
-        <v>109</v>
-      </c>
-      <c r="B111">
-        <v>5</v>
-      </c>
-      <c r="C111">
-        <v>12161.97380672962</v>
-      </c>
-      <c r="D111">
-        <v>0.41158377613793318</v>
-      </c>
-      <c r="E111" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A112" s="36">
-        <v>110</v>
-      </c>
-      <c r="B112">
-        <v>5</v>
-      </c>
-      <c r="C112">
-        <v>12120.419521234749</v>
-      </c>
-      <c r="D112">
-        <v>0.41359424056950811</v>
-      </c>
-      <c r="E112" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A113" s="36">
-        <v>111</v>
-      </c>
-      <c r="B113">
-        <v>5</v>
-      </c>
-      <c r="C113">
-        <v>12125.646684747049</v>
-      </c>
-      <c r="D113">
-        <v>0.41334134183248639</v>
-      </c>
-      <c r="E113" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A114" s="36">
-        <v>112</v>
-      </c>
-      <c r="B114">
-        <v>5</v>
-      </c>
-      <c r="C114">
-        <v>19772.71852452663</v>
-      </c>
-      <c r="D114">
-        <v>4.3363474171297822E-2</v>
-      </c>
-      <c r="E114" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A115" s="36">
-        <v>113</v>
-      </c>
-      <c r="B115">
-        <v>5</v>
-      </c>
-      <c r="C115">
-        <v>11837.15899782704</v>
-      </c>
-      <c r="D115">
-        <v>0.42729884890047898</v>
-      </c>
-      <c r="E115" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A116" s="36">
-        <v>114</v>
-      </c>
-      <c r="B116">
-        <v>5</v>
-      </c>
-      <c r="C116">
-        <v>11937.647354933501</v>
-      </c>
-      <c r="D116">
-        <v>0.42243705750293742</v>
-      </c>
-      <c r="E116" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A117" s="36">
-        <v>115</v>
-      </c>
-      <c r="B117">
-        <v>5</v>
-      </c>
-      <c r="C117">
-        <v>11773.31849708488</v>
-      </c>
-      <c r="D117">
-        <v>0.43038755694845898</v>
-      </c>
-      <c r="E117" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A118" s="36">
-        <v>116</v>
-      </c>
-      <c r="B118">
-        <v>5</v>
-      </c>
-      <c r="C118">
-        <v>11778.20792817073</v>
-      </c>
-      <c r="D118">
-        <v>0.43015099825970571</v>
-      </c>
-      <c r="E118" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A119" s="36">
-        <v>117</v>
-      </c>
-      <c r="B119">
-        <v>5</v>
-      </c>
-      <c r="C119">
-        <v>19807.01432256441</v>
-      </c>
-      <c r="D119">
-        <v>4.1704187258135739E-2</v>
-      </c>
-      <c r="E119" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A120" s="36">
-        <v>118</v>
-      </c>
-      <c r="B120">
-        <v>5</v>
-      </c>
-      <c r="C120">
-        <v>12124.50750381648</v>
-      </c>
-      <c r="D120">
-        <v>0.41339645727280139</v>
-      </c>
-      <c r="E120" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A121" s="36">
-        <v>119</v>
-      </c>
-      <c r="B121">
-        <v>6</v>
-      </c>
-      <c r="C121">
-        <v>11836.162550516159</v>
-      </c>
-      <c r="D121">
-        <v>0.42734705865436168</v>
-      </c>
-      <c r="E121" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A122" s="36">
-        <v>120</v>
-      </c>
-      <c r="B122">
-        <v>6</v>
-      </c>
-      <c r="C122">
-        <v>11937.633736193869</v>
-      </c>
-      <c r="D122">
-        <v>0.42243771639987898</v>
-      </c>
-      <c r="E122" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A123" s="36">
-        <v>121</v>
-      </c>
-      <c r="B123">
-        <v>6</v>
-      </c>
-      <c r="C123">
-        <v>11767.65609306582</v>
-      </c>
-      <c r="D123">
-        <v>0.430661513334472</v>
-      </c>
-      <c r="E123" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A124" s="36">
-        <v>122</v>
-      </c>
-      <c r="B124">
-        <v>6</v>
-      </c>
-      <c r="C124">
-        <v>11773.767305334961</v>
-      </c>
-      <c r="D124">
-        <v>0.43036584286981139</v>
-      </c>
-      <c r="E124" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A125" s="36">
-        <v>123</v>
-      </c>
-      <c r="B125">
-        <v>6</v>
-      </c>
-      <c r="C125">
-        <v>19720.78574230881</v>
-      </c>
-      <c r="D125">
-        <v>4.5876067282652137E-2</v>
-      </c>
-      <c r="E125" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A126" s="36">
-        <v>124</v>
-      </c>
-      <c r="B126">
-        <v>6</v>
-      </c>
-      <c r="C126">
-        <v>12100.35258845866</v>
-      </c>
-      <c r="D126">
-        <v>0.41456511166298687</v>
-      </c>
-      <c r="E126" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A127" s="36">
-        <v>125</v>
-      </c>
-      <c r="B127">
-        <v>6</v>
-      </c>
-      <c r="C127">
-        <v>11772.589501124559</v>
-      </c>
-      <c r="D127">
-        <v>0.43042282696770068</v>
-      </c>
-      <c r="E127" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A128" s="36">
-        <v>126</v>
-      </c>
-      <c r="B128">
-        <v>7</v>
-      </c>
-      <c r="C128">
-        <v>11766.829394587299</v>
-      </c>
-      <c r="D128">
-        <v>0.43070151036165938</v>
-      </c>
-      <c r="E128" t="s">
-        <v>286</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>